--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2000380.614647381</v>
+        <v>1998493.03313098</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>109.9948971292145</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>46.58646588932459</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>43.31785343913998</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>125.7220754819249</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>237.574205432143</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>155.3197306044665</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>316.4694883249353</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>280.8971768142538</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1297,13 +1297,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>38.85099796338676</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338501</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952497991</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>1.020642169053317</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>46.64213257536574</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505273973</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>12.04943653202349</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>73.04607632044151</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>43.03801681746326</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>103.4286568439259</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>169.17700531579</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>216.9730569466446</v>
+        <v>13.01003019785363</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,16 +2564,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>246.8098865768332</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.5269768002174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965517</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801199</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437406</v>
+        <v>78.97366804880268</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>37.63198169733388</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571493</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>54.76109577523574</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522954</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373574</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898725</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857177</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692859</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329066</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.361678333737</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789555</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415222</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941874</v>
@@ -3961,7 +3961,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y43" t="n">
         <v>150.4527632224542</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1289.01781586839</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C2" t="n">
-        <v>1289.01781586839</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="D2" t="n">
-        <v>1289.01781586839</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="E2" t="n">
-        <v>903.2295632701455</v>
+        <v>929.9497309636281</v>
       </c>
       <c r="F2" t="n">
-        <v>492.2436584805379</v>
+        <v>518.9638261740206</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>101.0000180722075</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>101.0000180722075</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.01781586839</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,28 +4410,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810045</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.381229508782</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="C5" t="n">
-        <v>1496.41871256837</v>
+        <v>1525.577074624423</v>
       </c>
       <c r="D5" t="n">
-        <v>1138.15301396162</v>
+        <v>1167.311376017672</v>
       </c>
       <c r="E5" t="n">
-        <v>752.3647613633757</v>
+        <v>781.523123419428</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>774.5776226702245</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572904</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="6">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>393.6767897220517</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>393.6767897220517</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>393.6767897220517</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>393.6767897220517</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1525.74665604171</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="C8" t="n">
-        <v>1156.784139101298</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D8" t="n">
-        <v>798.518440494548</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>798.518440494548</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>791.5729397453446</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>373.6091316435314</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1963.573724800349</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278602</v>
+        <v>1610.805069530235</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017522</v>
+        <v>1237.339311269155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.74665604171</v>
+        <v>847.1999792933431</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785274</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661917</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>409.0761618661917</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>262.1862143682813</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>93.18641410661371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>93.18641410661371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>93.18641410661371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155902</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K12" t="n">
-        <v>287.777852827703</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845915</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528585</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>566.6879222525852</v>
+        <v>583.2726413366777</v>
       </c>
       <c r="C13" t="n">
-        <v>397.7517393246783</v>
+        <v>414.3364584087708</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123425</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123425</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123425</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>1197.118517124373</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X13" t="n">
-        <v>969.128966226355</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="Y13" t="n">
-        <v>748.3363870828249</v>
+        <v>764.9211061669174</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822454</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,37 +5288,37 @@
         <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.777852827703</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341669</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653859</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>517.9294177607294</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C16" t="n">
-        <v>517.9294177607294</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D16" t="n">
-        <v>367.8127783483936</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362487</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383383</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383383</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383383</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1425.132355082709</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1201.346939872215</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>912.2183010857727</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.78763177146</v>
+        <v>657.5338128798858</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344993</v>
+        <v>657.5338128798858</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617344993</v>
+        <v>429.5442619818684</v>
       </c>
       <c r="Y16" t="n">
-        <v>699.5778825909691</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5504,13 +5504,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5531,13 +5531,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>287.5797832182601</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655739</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286133</v>
+        <v>241.9805482336711</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305959</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y19" t="n">
-        <v>437.6964226305959</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,13 +5768,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.2482765610115</v>
+        <v>538.8019868198126</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331046</v>
+        <v>369.8658038919057</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207689</v>
+        <v>369.8658038919057</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383757</v>
+        <v>369.8658038919057</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>369.8658038919057</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>201.6904822117262</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>201.6904822117262</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1328.030406602559</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1328.030406602559</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W22" t="n">
-        <v>1328.030406602559</v>
+        <v>720.4504516500523</v>
       </c>
       <c r="X22" t="n">
-        <v>1100.040855704542</v>
+        <v>720.4504516500523</v>
       </c>
       <c r="Y22" t="n">
-        <v>879.2482765610115</v>
+        <v>720.4504516500523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5981,37 +5981,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M24" t="n">
-        <v>857.5427825698952</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>415.509052552801</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C25" t="n">
-        <v>415.509052552801</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.810421592522</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.810421592522</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>415.810421592522</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1079.831556486945</v>
+        <v>1485.774825913606</v>
       </c>
       <c r="U25" t="n">
-        <v>1079.831556486945</v>
+        <v>1485.774825913606</v>
       </c>
       <c r="V25" t="n">
-        <v>825.1470682810581</v>
+        <v>1485.774825913606</v>
       </c>
       <c r="W25" t="n">
-        <v>825.1470682810581</v>
+        <v>1196.357655876645</v>
       </c>
       <c r="X25" t="n">
-        <v>597.1575173830407</v>
+        <v>968.3681049786276</v>
       </c>
       <c r="Y25" t="n">
-        <v>597.1575173830407</v>
+        <v>747.5755258350974</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,55 +6221,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609662</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550793</v>
+        <v>825.9079295287855</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181187</v>
+        <v>825.9079295287855</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201014</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6485,28 +6485,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.4560528787365</v>
+        <v>439.5324299542183</v>
       </c>
       <c r="C31" t="n">
-        <v>525.2807352322005</v>
+        <v>439.5324299542183</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9249611012357</v>
+        <v>345.1766558232533</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7727328002135</v>
+        <v>345.1766558232533</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6436505836741</v>
+        <v>265.4052739557762</v>
       </c>
       <c r="G31" t="n">
-        <v>135.2291941848655</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667513</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1335.260356662001</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1101.604051906411</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>929.3753662897645</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>764.3436524276053</v>
+        <v>565.4200295030872</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254956</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6914,67 +6914,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7023,19 +7023,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1236.836466556557</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108322</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083196</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504503</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,10 +7120,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7154,52 +7154,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7397,43 +7397,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7494,16 +7494,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7634,43 +7634,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7804,34 +7804,34 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254963</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649698</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010317</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>199.7396287231169</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445223</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298395</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229598</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445223</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M24" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,22 +10671,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>8.406710013101758</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>147.5948308491591</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,19 +23467,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>239.8808657612253</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>134.3845261145457</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>124.8747336631617</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>36.51615797628585</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>103.3959458291059</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>6.99058862034604</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>117.0603470827874</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>4.574504111744631</v>
+        <v>208.5375308605356</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>5.327756746994851</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.0576765518774</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>11.2441233455715</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>56.07859004164506</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1.236344360222574e-12</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.209912170452299e-12</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874521.8073538229</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>874521.8073538231</v>
+        <v>874521.8073538229</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>909266.5780904578</v>
+        <v>909266.5780904577</v>
       </c>
     </row>
     <row r="12">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590215</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590215</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>528868.7785488518</v>
+        <v>528868.778548852</v>
       </c>
       <c r="L2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="M2" t="n">
         <v>533677.1504117844</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086676</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284577</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26424,31 +26424,31 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143919</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="F4" t="n">
+        <v>15045.66962143914</v>
+      </c>
+      <c r="G4" t="n">
         <v>15045.66962143911</v>
       </c>
-      <c r="G4" t="n">
-        <v>15045.66962143909</v>
-      </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563567</v>
+        <v>33210.29213563565</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275955</v>
+        <v>37464.45686275954</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275959</v>
@@ -26457,7 +26457,7 @@
         <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295924.7651173922</v>
+        <v>-295924.7651173921</v>
       </c>
       <c r="C6" t="n">
-        <v>294043.1140971524</v>
+        <v>294043.1140971526</v>
       </c>
       <c r="D6" t="n">
         <v>294043.1140971524</v>
       </c>
       <c r="E6" t="n">
-        <v>-123855.2543880299</v>
+        <v>-123952.7135140023</v>
       </c>
       <c r="F6" t="n">
-        <v>401304.7820888658</v>
+        <v>401207.3229628936</v>
       </c>
       <c r="G6" t="n">
-        <v>401304.7820888654</v>
+        <v>401207.3229628936</v>
       </c>
       <c r="H6" t="n">
-        <v>401304.7820888658</v>
+        <v>401207.3229628937</v>
       </c>
       <c r="I6" t="n">
-        <v>401304.7820888659</v>
+        <v>401207.3229628936</v>
       </c>
       <c r="J6" t="n">
-        <v>224881.5628962727</v>
+        <v>224784.1037703009</v>
       </c>
       <c r="K6" t="n">
-        <v>354867.6725801476</v>
+        <v>354849.1788422135</v>
       </c>
       <c r="L6" t="n">
-        <v>388154.6809281326</v>
+        <v>388154.6809281327</v>
       </c>
       <c r="M6" t="n">
-        <v>263696.5724951624</v>
+        <v>263696.5724951623</v>
       </c>
       <c r="N6" t="n">
         <v>398497.5877289994</v>
       </c>
       <c r="O6" t="n">
-        <v>398497.5877289995</v>
+        <v>398497.5877289996</v>
       </c>
       <c r="P6" t="n">
         <v>354334.9824261537</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108345</v>
+        <v>12.92863350108356</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>303.7892728915805</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>105.3448503555367</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594879</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>80.49006577330459</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>281.1539702597865</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>176.209964588652</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>56.82580834555245</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>7.45328443942185</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>46.85508165588107</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>6.348961225150241</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8578157762261</v>
       </c>
     </row>
     <row r="11">
@@ -28141,10 +28141,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>1.927418225022848e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29284,10 +29284,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-3.680863855983288e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,46 +31832,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565516</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,46 +32069,46 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,43 +32151,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.9101789549066</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594832</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>482.1033309642249</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714616</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507399</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.9101789549066</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560241</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734259</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415661</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507399</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35902,10 +35902,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36373,13 +36373,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M24" t="n">
-        <v>326.2624260966948</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>318.8310870635681</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952061</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595511</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502434</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015153</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,16 +38102,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
